--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1486864.777278025</v>
+        <v>-1452471.162189488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10598556.56769996</v>
+        <v>10614415.18940326</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>160.1197528430986</v>
+        <v>30.59290911157424</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.32000348671343</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,7 +722,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>151.1449607493886</v>
       </c>
       <c r="V4" t="n">
-        <v>270.3482470945317</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.9032393034097</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.0665348042639</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>90.46955494245009</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>264.8609403329451</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1142,16 +1142,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>286.2721000371766</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1339,22 +1339,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>37.00330776666756</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.79556056591031</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>215.8782216969078</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>172.493324008032</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>65.07405371603939</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1847,10 +1847,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>71.95361350213055</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>147.185791830096</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2482,16 +2482,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>64.90507698037602</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2795,7 +2795,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>35.5167825707945</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3032,7 +3032,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432389</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
@@ -3439,7 +3439,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277815</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432403</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245964</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
         <v>407.353044956137</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925396</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.267442227782</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.3442278134079</v>
+        <v>388.4946097029542</v>
       </c>
       <c r="C2" t="n">
-        <v>249.2421590372352</v>
+        <v>354.3925409267816</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4331,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1672.617769992828</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1452.550542865867</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1193.328240182884</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>830.71129011671</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>425.8558355277432</v>
       </c>
       <c r="X2" t="n">
-        <v>709.6437982983157</v>
+        <v>410.7537761474579</v>
       </c>
       <c r="Y2" t="n">
-        <v>709.6437982983157</v>
+        <v>410.7537761474579</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.1653293437081</v>
+        <v>858.4638871896879</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1523.093931261154</v>
       </c>
       <c r="V4" t="n">
-        <v>986.4300231622954</v>
+        <v>1523.093931261154</v>
       </c>
       <c r="W4" t="n">
-        <v>714.403618748587</v>
+        <v>1523.093931261154</v>
       </c>
       <c r="X4" t="n">
-        <v>714.403618748587</v>
+        <v>1277.702176594567</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.9839480626952</v>
+        <v>1050.282505908675</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1668.767485194388</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>1634.665416418215</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>1198.755631592659</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>764.9808867509547</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.1538612005666</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1112.375769149668</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1738.870975579372</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.139698599281</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.27028930849</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.27028930849</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.27028930849</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.27028930849</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2114.414834719523</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1695.272371298834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1691.026651638892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1374.225746864822</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1267.769285701464</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1172.678996848018</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1078.558582174971</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>995.1747437911329</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>909.7896540573167</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>868.0540018735292</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>894.1176750339866</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>1218.676000000199</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1845.171206429903</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625923</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625923</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625923</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625923</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625923</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2414.120985257998</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2467.838325800721</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2337.659682131323</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2161.323135131291</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1962.20561719329</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1776.882862926484</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1622.015427165364</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1495.529647944585</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.486327814413</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381823</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2439.91037452158</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2161.477373774685</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>1874.521865645116</v>
       </c>
       <c r="W7" t="n">
-        <v>1270.644793662241</v>
+        <v>1602.495461231407</v>
       </c>
       <c r="X7" t="n">
-        <v>1270.644793662241</v>
+        <v>1357.10370656482</v>
       </c>
       <c r="Y7" t="n">
-        <v>1270.644793662241</v>
+        <v>1129.684035878928</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.640221925911</v>
+        <v>866.5213804116893</v>
       </c>
       <c r="C8" t="n">
-        <v>408.5381531497383</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D8" t="n">
-        <v>376.6687723645869</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E8" t="n">
-        <v>346.9344315632861</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>323.1074060128979</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9397924108188</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>947.1238364150125</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1638.3885302336</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1638.3885302336</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.3885302336</v>
+        <v>2190.193340956777</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.3885302336</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W10" t="n">
-        <v>1366.362125819891</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X10" t="n">
-        <v>1366.362125819891</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y10" t="n">
-        <v>1138.942455134</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1850.39369190706</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1850.39369190706</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.334882112204</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797067</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029706</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991047</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>515.4194091991047</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>515.4194091991047</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M11" t="n">
-        <v>515.4194091991047</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.09369519399</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764296</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597692</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556287</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309344</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493181</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366219</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683236</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617063</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.822279028096</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607407</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.39369190706</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1068.091559910694</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>895.5298483939188</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>729.6518555954415</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>559.8938518461787</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>385.6581710299847</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>220.0668960558124</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2291.703516525438</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>2004.748008395869</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1732.72160398216</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1487.329849315573</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1259.910178629681</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5309,19 +5309,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1077.292364523337</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>904.730653006562</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>738.8526602080847</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5443,43 +5443,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
         <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878955</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2013.948813008512</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1741.922408594804</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1496.530653928216</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.110983242324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5513,25 +5513,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
         <v>5113.042013538981</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1077.292364523337</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>904.730653006562</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>738.8526602080847</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>569.0946564588219</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5680,10 +5680,10 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
         <v>2203.220781338909</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2013.948813008512</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1741.922408594804</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1496.530653928216</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1269.110983242324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,40 +5759,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1068.769857140658</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1733.399901212125</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1488.008146545537</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1260.588475859645</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6130,13 +6130,13 @@
         <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>473.3149733731391</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6230,13 +6230,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009657</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,43 +6470,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.521082083228</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6871,13 +6871,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174706</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
@@ -6935,28 +6935,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1172.626669928677</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2329.674505139228</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>3455.405488575675</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>4435.585155145982</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790892</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790892</v>
@@ -6965,22 +6965,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7072,25 +7072,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716792</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H37" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,10 +7111,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579744</v>
@@ -7126,16 +7126,16 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7172,52 +7172,52 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1172.626669928677</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2329.674505139228</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>3455.405488575675</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4435.585155145982</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790892</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7366,10 +7366,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7409,28 +7409,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>1172.626669928677</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2329.674505139228</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>3455.405488575675</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>4435.585155145982</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4435.585155145982</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7546,19 +7546,19 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7585,7 +7585,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7631,13 +7631,13 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835853</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H44" t="n">
         <v>97.56670367581785</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645019</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.13282542268</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7786,43 +7786,43 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850159</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7979,25 +7979,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,19 +8058,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>117.6925219988882</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102474</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779795</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479937</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,19 +8693,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>978.4588747423082</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9878,16 +9878,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.359559486722</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>164.53363520239</v>
+        <v>0.9577778657256601</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>215.6724652803921</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.119939711684393e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.446659489829329</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>102.9863699957307</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.146865729420728</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>102.9863699957308</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>23.65030257151133</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>248.5691704774793</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>838642.2372222958</v>
+        <v>697861.1621397549</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>915303.8107959299</v>
+        <v>925996.4312399237</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>915303.8107959299</v>
+        <v>927775.3128535972</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>784846.5242520696</v>
+        <v>936509.3797251813</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>936509.3797251816</v>
+        <v>936509.3797251815</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936509.3797251817</v>
+        <v>936509.3797251815</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>951837.4437177243</v>
+        <v>951837.4437177242</v>
       </c>
     </row>
     <row r="13">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48968.57601488122</v>
+        <v>40436.38964624237</v>
       </c>
       <c r="C2" t="n">
         <v>53614.73198904085</v>
       </c>
       <c r="D2" t="n">
-        <v>53614.73198904084</v>
+        <v>53614.73198904086</v>
       </c>
       <c r="E2" t="n">
-        <v>44153.57204509641</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="F2" t="n">
-        <v>52685.75841373525</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="G2" t="n">
         <v>52685.75841373524</v>
@@ -26332,7 +26332,7 @@
         <v>52685.75841373523</v>
       </c>
       <c r="I2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="J2" t="n">
         <v>52685.75841373523</v>
@@ -26347,13 +26347,13 @@
         <v>53614.73198904086</v>
       </c>
       <c r="N2" t="n">
-        <v>53614.73198904086</v>
+        <v>53614.73198904085</v>
       </c>
       <c r="O2" t="n">
-        <v>53614.73198904083</v>
+        <v>53614.73198904085</v>
       </c>
       <c r="P2" t="n">
-        <v>53614.73198904086</v>
+        <v>53614.73198904088</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246203</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106441</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725246</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471826</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338193</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143537</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978836</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341158</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664683</v>
+        <v>124611.1870481614</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436017</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.33653407505</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933281</v>
@@ -26436,28 +26436,28 @@
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>73343.05610596602</v>
+        <v>73343.05610596608</v>
       </c>
       <c r="M4" t="n">
+        <v>81349.24995213679</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81349.24995213679</v>
+      </c>
+      <c r="O4" t="n">
         <v>81349.2499521368</v>
       </c>
-      <c r="N4" t="n">
-        <v>81349.24995213677</v>
-      </c>
-      <c r="O4" t="n">
-        <v>81349.24995213677</v>
-      </c>
       <c r="P4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.2499521368</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295553</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26488,7 +26488,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325957.6104485194</v>
+        <v>-286120.3447574212</v>
       </c>
       <c r="C6" t="n">
-        <v>-205638.8823946971</v>
+        <v>-248655.0720499784</v>
       </c>
       <c r="D6" t="n">
-        <v>-205638.8823946972</v>
+        <v>-188010.7370264551</v>
       </c>
       <c r="E6" t="n">
-        <v>-246267.3230886053</v>
+        <v>-275411.5120418225</v>
       </c>
       <c r="F6" t="n">
-        <v>-172172.0841861083</v>
+        <v>-93056.40282077274</v>
       </c>
       <c r="G6" t="n">
-        <v>-93033.17848139007</v>
+        <v>-93056.40282077272</v>
       </c>
       <c r="H6" t="n">
-        <v>-93033.17848139009</v>
+        <v>-93056.40282077272</v>
       </c>
       <c r="I6" t="n">
-        <v>-93033.17848139006</v>
+        <v>-93056.40282077272</v>
       </c>
       <c r="J6" t="n">
-        <v>-204047.6438263803</v>
+        <v>-204070.8681657629</v>
       </c>
       <c r="K6" t="n">
-        <v>-93033.17848139003</v>
+        <v>-146724.7298841547</v>
       </c>
       <c r="L6" t="n">
-        <v>-111800.0509261837</v>
+        <v>-120580.2246166213</v>
       </c>
       <c r="M6" t="n">
-        <v>-232608.5540870693</v>
+        <v>-240827.8334270376</v>
       </c>
       <c r="N6" t="n">
-        <v>-170899.3329625972</v>
+        <v>-103250.1326891856</v>
       </c>
       <c r="O6" t="n">
-        <v>-103250.1326891856</v>
+        <v>-103250.1326891857</v>
       </c>
       <c r="P6" t="n">
         <v>-103250.1326891856</v>
@@ -26719,13 +26719,13 @@
         <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072316</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574093</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702093</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574093</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072316</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574093</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>106.8972989318113</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>58.49535159128793</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.5037099900371</v>
       </c>
       <c r="V4" t="n">
-        <v>13.73770595374214</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3319306324442</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>70.91211577459165</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.83389772753335</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>152.9510970148792</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>157.1756344471136</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,16 +27862,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>111.1117530257921</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>120.6456472483157</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>222.8531101735154</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874674</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30660,7 +30660,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="R43" t="n">
         <v>16.23571033874738</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,19 +34778,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>117.6925219988882</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102474</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779795</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479937</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>978.4588747423082</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,19 +35811,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645625</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36598,16 +36598,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.359559486722</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778278</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38184,7 +38184,7 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O46" t="n">
         <v>440.1440428900419</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
